--- a/oil/misc/Bakken_misc_forecasts_2014-11_(mbpd).xlsx
+++ b/oil/misc/Bakken_misc_forecasts_2014-11_(mbpd).xlsx
@@ -2636,11 +2636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2073918728"/>
-        <c:axId val="2080406376"/>
+        <c:axId val="-2074394952"/>
+        <c:axId val="-2074424376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2073918728"/>
+        <c:axId val="-2074394952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,7 +2705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080406376"/>
+        <c:crossAx val="-2074424376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2715,7 +2715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080406376"/>
+        <c:axId val="-2074424376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2757,2695 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073918728"/>
+        <c:crossAx val="-2074394952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2800">
+                <a:latin typeface="Rockwell"/>
+                <a:cs typeface="Rockwell"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:latin typeface="Rockwell"/>
+                <a:cs typeface="Rockwell"/>
+              </a:rPr>
+              <a:t>Bakken tight oil production forecasts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0360798571944849"/>
+          <c:y val="0.0194363459669582"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>historical (EIA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Citi 2014-11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lukoil 2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$D$2:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rystad 2014-05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EPRINC 2014-05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$F$2:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hughes 2013 (2000 wells/year)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$G$2:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hughes 2014 (risked, most likely drilling rate)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$H$2:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ND DMR 2014-06 P50 [probable]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$I$2:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ND DMR 2014-06 P10 [possible]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$J$2:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EIA AEO 2013 (reference case)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$K$2:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EIA AEO 2014 (reference case)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bakken_misc_forecasts_2014-11_('!$L$2:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="13">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2075899976"/>
+        <c:axId val="-2075913560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2075899976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>graph by Mason Inman for The Frack</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Lab (http://beaconreader.com/mason-inman)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.2945856559307"/>
+              <c:y val="0.94596711125395"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075913560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075913560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>million barrels</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per day</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00834492350486787"/>
+              <c:y val="0.362201204441282"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075899976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -2817,6 +5505,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3149,8 +5869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="I45" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
